--- a/요구사항 명세서_ver1.0.xlsx
+++ b/요구사항 명세서_ver1.0.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4554860-C827-40F7-AB52-B734065D5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B22B16D-C948-4ABC-8524-8B0B8D334C3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="201">
   <si>
     <t>RQ-ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결혼유무 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학력 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,14 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추천 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">클릭 시 추천수 증가. 한 계정에 한해 한 개의 게시물에 한 개의 추천만 가능 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문의하기 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-ID-006-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-007-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,10 +770,6 @@
   </si>
   <si>
     <t>RQ-ID-009-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -827,13 +806,21 @@
   <si>
     <t>요구사항 명세서
 (MZ세대 분석서비스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼인상태 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 결과 노출 영역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -938,19 +925,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,7 +935,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,11 +1262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E3BE79-2B1D-40F2-8EDA-C59EC12E3F84}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1293,965 +1280,950 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="10">
         <v>45100</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="E23" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="E40" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="9" t="s">
+    <row r="60" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B52:B58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B34:B47"/>
-    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="B47:B51"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
